--- a/natmiOut/OldD7/LR-pairs_lrc2p/Angpt1-Itga5.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Angpt1-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>21.8780228513562</v>
+        <v>0.110507</v>
       </c>
       <c r="H2">
-        <v>21.8780228513562</v>
+        <v>0.331521</v>
       </c>
       <c r="I2">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="J2">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N2">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q2">
-        <v>627.5861657470658</v>
+        <v>3.424790214626667</v>
       </c>
       <c r="R2">
-        <v>627.5861657470658</v>
+        <v>30.82311193164</v>
       </c>
       <c r="S2">
-        <v>0.3337454209250462</v>
+        <v>0.001657643055704766</v>
       </c>
       <c r="T2">
-        <v>0.3337454209250462</v>
+        <v>0.001657643055704766</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>21.8780228513562</v>
+        <v>0.110507</v>
       </c>
       <c r="H3">
-        <v>21.8780228513562</v>
+        <v>0.331521</v>
       </c>
       <c r="I3">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="J3">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N3">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q3">
-        <v>646.1975612672368</v>
+        <v>3.305625617383</v>
       </c>
       <c r="R3">
-        <v>646.1975612672368</v>
+        <v>29.750630556447</v>
       </c>
       <c r="S3">
-        <v>0.3436428156907323</v>
+        <v>0.001599965839079002</v>
       </c>
       <c r="T3">
-        <v>0.3436428156907323</v>
+        <v>0.001599965839079002</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>21.8780228513562</v>
+        <v>0.110507</v>
       </c>
       <c r="H4">
-        <v>21.8780228513562</v>
+        <v>0.331521</v>
       </c>
       <c r="I4">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="J4">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N4">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q4">
-        <v>355.8399517217236</v>
+        <v>2.116233140526</v>
       </c>
       <c r="R4">
-        <v>355.8399517217236</v>
+        <v>19.046098264734</v>
       </c>
       <c r="S4">
-        <v>0.1892329068916701</v>
+        <v>0.001024284394023128</v>
       </c>
       <c r="T4">
-        <v>0.1892329068916701</v>
+        <v>0.001024284394023127</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>21.8780228513562</v>
+        <v>0.110507</v>
       </c>
       <c r="H5">
-        <v>21.8780228513562</v>
+        <v>0.331521</v>
       </c>
       <c r="I5">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="J5">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N5">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q5">
-        <v>122.4844151264396</v>
+        <v>0.6689779940120001</v>
       </c>
       <c r="R5">
-        <v>122.4844151264396</v>
+        <v>6.020801946108</v>
       </c>
       <c r="S5">
-        <v>0.0651362552494614</v>
+        <v>0.0003237940594017318</v>
       </c>
       <c r="T5">
-        <v>0.0651362552494614</v>
+        <v>0.0003237940594017317</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.60236258002801</v>
+        <v>22.14783133333333</v>
       </c>
       <c r="H6">
-        <v>1.60236258002801</v>
+        <v>66.443494</v>
       </c>
       <c r="I6">
-        <v>0.0682426012430899</v>
+        <v>0.9230726249214253</v>
       </c>
       <c r="J6">
-        <v>0.0682426012430899</v>
+        <v>0.9230726249214253</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N6">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q6">
-        <v>45.96487509720363</v>
+        <v>686.3970248545511</v>
       </c>
       <c r="R6">
-        <v>45.96487509720363</v>
+        <v>6177.57322369096</v>
       </c>
       <c r="S6">
-        <v>0.02444376154917676</v>
+        <v>0.3322250971306834</v>
       </c>
       <c r="T6">
-        <v>0.02444376154917676</v>
+        <v>0.3322250971306833</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.60236258002801</v>
+        <v>22.14783133333333</v>
       </c>
       <c r="H7">
-        <v>1.60236258002801</v>
+        <v>66.443494</v>
       </c>
       <c r="I7">
-        <v>0.0682426012430899</v>
+        <v>0.9230726249214253</v>
       </c>
       <c r="J7">
-        <v>0.0682426012430899</v>
+        <v>0.9230726249214253</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N7">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q7">
-        <v>47.32798747469045</v>
+        <v>662.5140364406286</v>
       </c>
       <c r="R7">
-        <v>47.32798747469045</v>
+        <v>5962.626327965658</v>
       </c>
       <c r="S7">
-        <v>0.02516865406437575</v>
+        <v>0.3206654197744657</v>
       </c>
       <c r="T7">
-        <v>0.02516865406437575</v>
+        <v>0.3206654197744656</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.60236258002801</v>
+        <v>22.14783133333333</v>
       </c>
       <c r="H8">
-        <v>1.60236258002801</v>
+        <v>66.443494</v>
       </c>
       <c r="I8">
-        <v>0.0682426012430899</v>
+        <v>0.9230726249214253</v>
       </c>
       <c r="J8">
-        <v>0.0682426012430899</v>
+        <v>0.9230726249214253</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N8">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q8">
-        <v>26.0619813313029</v>
+        <v>424.1357982605639</v>
       </c>
       <c r="R8">
-        <v>26.0619813313029</v>
+        <v>3817.222184345076</v>
       </c>
       <c r="S8">
-        <v>0.01385955810418858</v>
+        <v>0.2052872487370915</v>
       </c>
       <c r="T8">
-        <v>0.01385955810418858</v>
+        <v>0.2052872487370915</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>22.14783133333333</v>
+      </c>
+      <c r="H9">
+        <v>66.443494</v>
+      </c>
+      <c r="I9">
+        <v>0.9230726249214253</v>
+      </c>
+      <c r="J9">
+        <v>0.9230726249214253</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.053716000000001</v>
+      </c>
+      <c r="N9">
+        <v>18.161148</v>
+      </c>
+      <c r="O9">
+        <v>0.07030309157387134</v>
+      </c>
+      <c r="P9">
+        <v>0.07030309157387132</v>
+      </c>
+      <c r="Q9">
+        <v>134.0766809079013</v>
+      </c>
+      <c r="R9">
+        <v>1206.690128171112</v>
+      </c>
+      <c r="S9">
+        <v>0.06489485927918476</v>
+      </c>
+      <c r="T9">
+        <v>0.06489485927918474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.735257333333333</v>
+      </c>
+      <c r="H10">
+        <v>5.205772</v>
+      </c>
+      <c r="I10">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="J10">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>30.99161333333333</v>
+      </c>
+      <c r="N10">
+        <v>92.97484</v>
+      </c>
+      <c r="O10">
+        <v>0.3599121977633812</v>
+      </c>
+      <c r="P10">
+        <v>0.3599121977633811</v>
+      </c>
+      <c r="Q10">
+        <v>53.77842430849778</v>
+      </c>
+      <c r="R10">
+        <v>484.0058187764799</v>
+      </c>
+      <c r="S10">
+        <v>0.02602945757699305</v>
+      </c>
+      <c r="T10">
+        <v>0.02602945757699304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.60236258002801</v>
-      </c>
-      <c r="H9">
-        <v>1.60236258002801</v>
-      </c>
-      <c r="I9">
-        <v>0.0682426012430899</v>
-      </c>
-      <c r="J9">
-        <v>0.0682426012430899</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>5.59851390404992</v>
-      </c>
-      <c r="N9">
-        <v>5.59851390404992</v>
-      </c>
-      <c r="O9">
-        <v>0.06990688277481021</v>
-      </c>
-      <c r="P9">
-        <v>0.06990688277481021</v>
-      </c>
-      <c r="Q9">
-        <v>8.970849183616115</v>
-      </c>
-      <c r="R9">
-        <v>8.970849183616115</v>
-      </c>
-      <c r="S9">
-        <v>0.004770627525348802</v>
-      </c>
-      <c r="T9">
-        <v>0.004770627525348802</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.735257333333333</v>
+      </c>
+      <c r="H11">
+        <v>5.205772</v>
+      </c>
+      <c r="I11">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="J11">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>29.913269</v>
+      </c>
+      <c r="N11">
+        <v>89.739807</v>
+      </c>
+      <c r="O11">
+        <v>0.3473891556493311</v>
+      </c>
+      <c r="P11">
+        <v>0.3473891556493311</v>
+      </c>
+      <c r="Q11">
+        <v>51.90721939622266</v>
+      </c>
+      <c r="R11">
+        <v>467.1649745660039</v>
+      </c>
+      <c r="S11">
+        <v>0.0251237700357865</v>
+      </c>
+      <c r="T11">
+        <v>0.02512377003578649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.735257333333333</v>
+      </c>
+      <c r="H12">
+        <v>5.205772</v>
+      </c>
+      <c r="I12">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="J12">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>19.150218</v>
+      </c>
+      <c r="N12">
+        <v>57.450654</v>
+      </c>
+      <c r="O12">
+        <v>0.2223955550134164</v>
+      </c>
+      <c r="P12">
+        <v>0.2223955550134163</v>
+      </c>
+      <c r="Q12">
+        <v>33.230556219432</v>
+      </c>
+      <c r="R12">
+        <v>299.075005974888</v>
+      </c>
+      <c r="S12">
+        <v>0.01608402188230177</v>
+      </c>
+      <c r="T12">
+        <v>0.01608402188230177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.735257333333333</v>
+      </c>
+      <c r="H13">
+        <v>5.205772</v>
+      </c>
+      <c r="I13">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="J13">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.053716000000001</v>
+      </c>
+      <c r="N13">
+        <v>18.161148</v>
+      </c>
+      <c r="O13">
+        <v>0.07030309157387134</v>
+      </c>
+      <c r="P13">
+        <v>0.07030309157387132</v>
+      </c>
+      <c r="Q13">
+        <v>10.50475508291733</v>
+      </c>
+      <c r="R13">
+        <v>94.54279574625599</v>
+      </c>
+      <c r="S13">
+        <v>0.005084438235284859</v>
+      </c>
+      <c r="T13">
+        <v>0.005084438235284859</v>
       </c>
     </row>
   </sheetData>
